--- a/Code/Results/Cases/Case_5_193/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_193/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9972751478518742</v>
+        <v>1.025494267911823</v>
       </c>
       <c r="D2">
-        <v>1.014345283997106</v>
+        <v>1.029622293557509</v>
       </c>
       <c r="E2">
-        <v>1.004098219328051</v>
+        <v>1.025842403853385</v>
       </c>
       <c r="F2">
-        <v>0.9739850470348109</v>
+        <v>1.023994663069089</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.039056584994684</v>
+        <v>1.032300846081392</v>
       </c>
       <c r="J2">
-        <v>1.019537665353564</v>
+        <v>1.030662975878256</v>
       </c>
       <c r="K2">
-        <v>1.025608319371954</v>
+        <v>1.032435670204791</v>
       </c>
       <c r="L2">
-        <v>1.015500753195745</v>
+        <v>1.028666791903852</v>
       </c>
       <c r="M2">
-        <v>0.9858191165538412</v>
+        <v>1.026824466054024</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.00149135755749</v>
+        <v>1.026368869764339</v>
       </c>
       <c r="D3">
-        <v>1.017291939007813</v>
+        <v>1.03025259309959</v>
       </c>
       <c r="E3">
-        <v>1.007438367325498</v>
+        <v>1.026582943201328</v>
       </c>
       <c r="F3">
-        <v>0.9808788777080656</v>
+        <v>1.025503485680592</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040176784168603</v>
+        <v>1.032482231056694</v>
       </c>
       <c r="J3">
-        <v>1.02194144906243</v>
+        <v>1.031177321845912</v>
       </c>
       <c r="K3">
-        <v>1.027708245615332</v>
+        <v>1.032874632585069</v>
       </c>
       <c r="L3">
-        <v>1.017976949391443</v>
+        <v>1.029214901078311</v>
       </c>
       <c r="M3">
-        <v>0.9917624078437521</v>
+        <v>1.028138375758012</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.004161669487295</v>
+        <v>1.026934971342464</v>
       </c>
       <c r="D4">
-        <v>1.019160950467715</v>
+        <v>1.030660565935474</v>
       </c>
       <c r="E4">
-        <v>1.009559541958041</v>
+        <v>1.027062656855838</v>
       </c>
       <c r="F4">
-        <v>0.9852316416425233</v>
+        <v>1.026479985932026</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040876880322517</v>
+        <v>1.03259848946209</v>
       </c>
       <c r="J4">
-        <v>1.023459515122065</v>
+        <v>1.031509686634143</v>
       </c>
       <c r="K4">
-        <v>1.029033491743867</v>
+        <v>1.033158108933363</v>
       </c>
       <c r="L4">
-        <v>1.019543944799246</v>
+        <v>1.029569435292668</v>
       </c>
       <c r="M4">
-        <v>0.9955116374617246</v>
+        <v>1.028988266592921</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.005270929498886</v>
+        <v>1.027173002000022</v>
       </c>
       <c r="D5">
-        <v>1.019937964107391</v>
+        <v>1.030832107136805</v>
       </c>
       <c r="E5">
-        <v>1.010442022636941</v>
+        <v>1.027264455693699</v>
       </c>
       <c r="F5">
-        <v>0.9870369756624847</v>
+        <v>1.026890556546702</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041165427216921</v>
+        <v>1.032647098525973</v>
       </c>
       <c r="J5">
-        <v>1.024089070477746</v>
+        <v>1.031649304348574</v>
       </c>
       <c r="K5">
-        <v>1.029582845600138</v>
+        <v>1.033277147422895</v>
       </c>
       <c r="L5">
-        <v>1.020194553024938</v>
+        <v>1.02971845003227</v>
       </c>
       <c r="M5">
-        <v>0.9970658130412821</v>
+        <v>1.029345493173619</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.005456411276228</v>
+        <v>1.027212970816792</v>
       </c>
       <c r="D6">
-        <v>1.020067925245818</v>
+        <v>1.030860911356725</v>
       </c>
       <c r="E6">
-        <v>1.010589661613217</v>
+        <v>1.027298346040234</v>
       </c>
       <c r="F6">
-        <v>0.9873386943298307</v>
+        <v>1.026959496206854</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041213541171701</v>
+        <v>1.032655244596936</v>
       </c>
       <c r="J6">
-        <v>1.02419427736035</v>
+        <v>1.03167274040739</v>
       </c>
       <c r="K6">
-        <v>1.02967463536587</v>
+        <v>1.033297126579846</v>
       </c>
       <c r="L6">
-        <v>1.020303322728687</v>
+        <v>1.029743468402982</v>
       </c>
       <c r="M6">
-        <v>0.9973255063187024</v>
+        <v>1.02940546922977</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.004176543230335</v>
+        <v>1.026938151757118</v>
       </c>
       <c r="D7">
-        <v>1.019171366835736</v>
+        <v>1.030662857963007</v>
       </c>
       <c r="E7">
-        <v>1.009571369655255</v>
+        <v>1.027065352803054</v>
       </c>
       <c r="F7">
-        <v>0.9852558595004735</v>
+        <v>1.026485471795389</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040880758392468</v>
+        <v>1.03259914002421</v>
       </c>
       <c r="J7">
-        <v>1.02346796083449</v>
+        <v>1.031511552639446</v>
       </c>
       <c r="K7">
-        <v>1.029040862483042</v>
+        <v>1.033159700062453</v>
       </c>
       <c r="L7">
-        <v>1.019552669940349</v>
+        <v>1.029571426559156</v>
       </c>
       <c r="M7">
-        <v>0.995532489484194</v>
+        <v>1.028993040132974</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9987123332256678</v>
+        <v>1.025789807018747</v>
       </c>
       <c r="D8">
-        <v>1.015349106000463</v>
+        <v>1.029835279393523</v>
       </c>
       <c r="E8">
-        <v>1.005235559876261</v>
+        <v>1.026092561238316</v>
       </c>
       <c r="F8">
-        <v>0.9763380176887193</v>
+        <v>1.024504539659672</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03944037964934</v>
+        <v>1.032362375606269</v>
       </c>
       <c r="J8">
-        <v>1.020357954009257</v>
+        <v>1.030836894762308</v>
       </c>
       <c r="K8">
-        <v>1.026325101579695</v>
+        <v>1.032584135590783</v>
       </c>
       <c r="L8">
-        <v>1.016345076157276</v>
+        <v>1.028852054364982</v>
       </c>
       <c r="M8">
-        <v>0.9878483404763865</v>
+        <v>1.027268571499021</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9886159728424968</v>
+        <v>1.023767644504359</v>
       </c>
       <c r="D9">
-        <v>1.008310868883954</v>
+        <v>1.028377993833413</v>
       </c>
       <c r="E9">
-        <v>0.9972714478279877</v>
+        <v>1.024382516626543</v>
       </c>
       <c r="F9">
-        <v>0.9597334473351652</v>
+        <v>1.02101516219413</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036705415553952</v>
+        <v>1.031936678954321</v>
       </c>
       <c r="J9">
-        <v>1.014577235786702</v>
+        <v>1.029644619602196</v>
       </c>
       <c r="K9">
-        <v>1.021270531906149</v>
+        <v>1.031565637707621</v>
       </c>
       <c r="L9">
-        <v>1.010408949553795</v>
+        <v>1.027583463769089</v>
       </c>
       <c r="M9">
-        <v>0.9735154498761207</v>
+        <v>1.024227410010787</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9815334989845087</v>
+        <v>1.02242048311582</v>
       </c>
       <c r="D10">
-        <v>1.00339330916505</v>
+        <v>1.02740720677411</v>
       </c>
       <c r="E10">
-        <v>0.9917193376203555</v>
+        <v>1.023245321255946</v>
       </c>
       <c r="F10">
-        <v>0.9479682011119556</v>
+        <v>1.01868950889748</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034738705732725</v>
+        <v>1.031647190476262</v>
       </c>
       <c r="J10">
-        <v>1.010499438100273</v>
+        <v>1.02884747505341</v>
       </c>
       <c r="K10">
-        <v>1.017701565464379</v>
+        <v>1.030883789958764</v>
       </c>
       <c r="L10">
-        <v>1.006239729034637</v>
+        <v>1.026737118447285</v>
       </c>
       <c r="M10">
-        <v>0.9633450573546958</v>
+        <v>1.022198117753419</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9783741640447173</v>
+        <v>1.02183737702411</v>
       </c>
       <c r="D11">
-        <v>1.001205120075304</v>
+        <v>1.026987031218647</v>
       </c>
       <c r="E11">
-        <v>0.9892514857263675</v>
+        <v>1.022753585875489</v>
       </c>
       <c r="F11">
-        <v>0.9426840771734292</v>
+        <v>1.017682558812417</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033850335489825</v>
+        <v>1.031520492088799</v>
       </c>
       <c r="J11">
-        <v>1.008675122519509</v>
+        <v>1.02850176205755</v>
       </c>
       <c r="K11">
-        <v>1.016104345326058</v>
+        <v>1.030587872124912</v>
       </c>
       <c r="L11">
-        <v>1.004378990419788</v>
+        <v>1.026370500899461</v>
       </c>
       <c r="M11">
-        <v>0.9587743617704011</v>
+        <v>1.021318923492812</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9771858796046945</v>
+        <v>1.021620819386394</v>
       </c>
       <c r="D12">
-        <v>1.000382983644715</v>
+        <v>1.02683098746269</v>
       </c>
       <c r="E12">
-        <v>0.9883246602558163</v>
+        <v>1.02257103608007</v>
       </c>
       <c r="F12">
-        <v>0.9406904480846754</v>
+        <v>1.017308538603711</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033514571366874</v>
+        <v>1.031473228355481</v>
       </c>
       <c r="J12">
-        <v>1.007988171690472</v>
+        <v>1.028373267330379</v>
       </c>
       <c r="K12">
-        <v>1.015502849968836</v>
+        <v>1.03047785430962</v>
       </c>
       <c r="L12">
-        <v>1.003679012597573</v>
+        <v>1.026234301544342</v>
       </c>
       <c r="M12">
-        <v>0.9570495293558765</v>
+        <v>1.020992272568825</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9774414534716511</v>
+        <v>1.021667270194368</v>
       </c>
       <c r="D13">
-        <v>1.00055976617336</v>
+        <v>1.026864458090243</v>
       </c>
       <c r="E13">
-        <v>0.9885239368404766</v>
+        <v>1.022610188974348</v>
       </c>
       <c r="F13">
-        <v>0.9411195261222165</v>
+        <v>1.01738876702376</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033586860064757</v>
+        <v>1.03148337573842</v>
       </c>
       <c r="J13">
-        <v>1.008135955447398</v>
+        <v>1.028400833571282</v>
       </c>
       <c r="K13">
-        <v>1.015632251904087</v>
+        <v>1.030501458057609</v>
       </c>
       <c r="L13">
-        <v>1.00382956749899</v>
+        <v>1.026263517724264</v>
       </c>
       <c r="M13">
-        <v>0.9574207714143728</v>
+        <v>1.02106234394648</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9782762465446964</v>
+        <v>1.021819475608254</v>
       </c>
       <c r="D14">
-        <v>1.001137355735258</v>
+        <v>1.026974132013807</v>
       </c>
       <c r="E14">
-        <v>0.9891750847272731</v>
+        <v>1.022738494154446</v>
       </c>
       <c r="F14">
-        <v>0.9425199275376499</v>
+        <v>1.017651642094744</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033822700694446</v>
+        <v>1.031516589379753</v>
       </c>
       <c r="J14">
-        <v>1.008618532191916</v>
+        <v>1.028491142305174</v>
       </c>
       <c r="K14">
-        <v>1.016054795769203</v>
+        <v>1.03057878007111</v>
       </c>
       <c r="L14">
-        <v>1.004321312866475</v>
+        <v>1.026359243049819</v>
       </c>
       <c r="M14">
-        <v>0.9586323512182583</v>
+        <v>1.021291924062699</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9787886064482948</v>
+        <v>1.021913258892491</v>
       </c>
       <c r="D15">
-        <v>1.00149197354691</v>
+        <v>1.027041709494151</v>
       </c>
       <c r="E15">
-        <v>0.9895749146250451</v>
+        <v>1.022817560832392</v>
       </c>
       <c r="F15">
-        <v>0.9433785952032415</v>
+        <v>1.017813608729249</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03396723531928</v>
+        <v>1.031537026598346</v>
       </c>
       <c r="J15">
-        <v>1.008914612637813</v>
+        <v>1.028546773700129</v>
       </c>
       <c r="K15">
-        <v>1.016314036707844</v>
+        <v>1.03062640737613</v>
       </c>
       <c r="L15">
-        <v>1.004623109800558</v>
+        <v>1.026418219775857</v>
       </c>
       <c r="M15">
-        <v>0.9593751945213449</v>
+        <v>1.021433365348028</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9817411515595562</v>
+        <v>1.022459186686942</v>
       </c>
       <c r="D16">
-        <v>1.003537250096892</v>
+        <v>1.027435096342843</v>
       </c>
       <c r="E16">
-        <v>0.9918817294811985</v>
+        <v>1.023277970460826</v>
       </c>
       <c r="F16">
-        <v>0.9483146977507325</v>
+        <v>1.018756337964193</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034796867591332</v>
+        <v>1.031655570648439</v>
       </c>
       <c r="J16">
-        <v>1.010619234372314</v>
+        <v>1.028870407441053</v>
       </c>
       <c r="K16">
-        <v>1.017806439851245</v>
+        <v>1.030903414899692</v>
       </c>
       <c r="L16">
-        <v>1.00636201145626</v>
+        <v>1.026761446639821</v>
       </c>
       <c r="M16">
-        <v>0.9636447176764302</v>
+        <v>1.022256456135106</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9835678364020394</v>
+        <v>1.022801692882923</v>
       </c>
       <c r="D17">
-        <v>1.00480409921756</v>
+        <v>1.027681906763554</v>
       </c>
       <c r="E17">
-        <v>0.9933112729889945</v>
+        <v>1.023566955268178</v>
       </c>
       <c r="F17">
-        <v>0.9513586022159041</v>
+        <v>1.019347703092766</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035307253223846</v>
+        <v>1.031729569455787</v>
       </c>
       <c r="J17">
-        <v>1.011672460177183</v>
+        <v>1.029073268812648</v>
       </c>
       <c r="K17">
-        <v>1.018728416256326</v>
+        <v>1.031076994429245</v>
       </c>
       <c r="L17">
-        <v>1.007437605109033</v>
+        <v>1.026976705415613</v>
       </c>
       <c r="M17">
-        <v>0.9662768560787484</v>
+        <v>1.022772623053222</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9846244401261629</v>
+        <v>1.02300149251266</v>
       </c>
       <c r="D18">
-        <v>1.005537388606474</v>
+        <v>1.027825884575072</v>
       </c>
       <c r="E18">
-        <v>0.9941389919564507</v>
+        <v>1.023735580553873</v>
       </c>
       <c r="F18">
-        <v>0.9531159304083734</v>
+        <v>1.019692643766911</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035601423273494</v>
+        <v>1.031772601635202</v>
       </c>
       <c r="J18">
-        <v>1.012281171817612</v>
+        <v>1.029191541901546</v>
       </c>
       <c r="K18">
-        <v>1.019261219196627</v>
+        <v>1.031178175446175</v>
       </c>
       <c r="L18">
-        <v>1.00805966680668</v>
+        <v>1.027102248253101</v>
       </c>
       <c r="M18">
-        <v>0.9677961856334221</v>
+        <v>1.023073646789193</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9849832349523866</v>
+        <v>1.023069622670282</v>
       </c>
       <c r="D19">
-        <v>1.005786478903192</v>
+        <v>1.027874980224735</v>
       </c>
       <c r="E19">
-        <v>0.9944202031813274</v>
+        <v>1.023793088476459</v>
       </c>
       <c r="F19">
-        <v>0.9537121266957713</v>
+        <v>1.019810261032827</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035701136534366</v>
+        <v>1.031787252427436</v>
       </c>
       <c r="J19">
-        <v>1.012487788863661</v>
+        <v>1.029231861053739</v>
       </c>
       <c r="K19">
-        <v>1.019442060597088</v>
+        <v>1.031212664523429</v>
       </c>
       <c r="L19">
-        <v>1.008270886553712</v>
+        <v>1.02714505273471</v>
       </c>
       <c r="M19">
-        <v>0.9683115894637623</v>
+        <v>1.023176280145216</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9833727739062366</v>
+        <v>1.022764942977025</v>
       </c>
       <c r="D20">
-        <v>1.00466876540412</v>
+        <v>1.027655424528025</v>
       </c>
       <c r="E20">
-        <v>0.9931585324575809</v>
+        <v>1.023535943169337</v>
       </c>
       <c r="F20">
-        <v>0.9510339116459899</v>
+        <v>1.019284254481995</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035252860523181</v>
+        <v>1.031721643536614</v>
       </c>
       <c r="J20">
-        <v>1.011560043594628</v>
+        <v>1.029051509137721</v>
       </c>
       <c r="K20">
-        <v>1.018630013994832</v>
+        <v>1.03105837770736</v>
       </c>
       <c r="L20">
-        <v>1.007322757115755</v>
+        <v>1.026953611627432</v>
       </c>
       <c r="M20">
-        <v>0.9659961163710992</v>
+        <v>1.022717248191797</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.978030835690722</v>
+        <v>1.021774653968342</v>
       </c>
       <c r="D21">
-        <v>1.000967532252945</v>
+        <v>1.026941834992789</v>
       </c>
       <c r="E21">
-        <v>0.9889836231316992</v>
+        <v>1.022700708637639</v>
       </c>
       <c r="F21">
-        <v>0.9421084167253587</v>
+        <v>1.017574231816845</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033753413370645</v>
+        <v>1.031506814373332</v>
       </c>
       <c r="J21">
-        <v>1.008476686980853</v>
+        <v>1.028464550882709</v>
       </c>
       <c r="K21">
-        <v>1.015930597594765</v>
+        <v>1.030556013443552</v>
       </c>
       <c r="L21">
-        <v>1.004176753630912</v>
+        <v>1.026331054911206</v>
       </c>
       <c r="M21">
-        <v>0.9582763356851265</v>
+        <v>1.021224320656898</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9745862303215693</v>
+        <v>1.021152216416243</v>
       </c>
       <c r="D22">
-        <v>0.9985860670813191</v>
+        <v>1.026493336240646</v>
       </c>
       <c r="E22">
-        <v>0.9862996122594858</v>
+        <v>1.022176157652847</v>
       </c>
       <c r="F22">
-        <v>0.936316628731654</v>
+        <v>1.016499104223017</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032777041650012</v>
+        <v>1.031370572344432</v>
       </c>
       <c r="J22">
-        <v>1.006483852357102</v>
+        <v>1.028095035345997</v>
       </c>
       <c r="K22">
-        <v>1.014185586393571</v>
+        <v>1.030239574340785</v>
       </c>
       <c r="L22">
-        <v>1.002147451454663</v>
+        <v>1.025939505916215</v>
       </c>
       <c r="M22">
-        <v>0.9532648131485054</v>
+        <v>1.020285198477666</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9764207311392268</v>
+        <v>1.021482163611205</v>
       </c>
       <c r="D23">
-        <v>0.999853858753578</v>
+        <v>1.026731078148558</v>
       </c>
       <c r="E23">
-        <v>0.9877282635226224</v>
+        <v>1.022454175474018</v>
       </c>
       <c r="F23">
-        <v>0.939404885809221</v>
+        <v>1.017069048421856</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033297913489172</v>
+        <v>1.031442907694298</v>
       </c>
       <c r="J23">
-        <v>1.007545614211267</v>
+        <v>1.028290967150498</v>
       </c>
       <c r="K23">
-        <v>1.015115332650606</v>
+        <v>1.030407379804077</v>
       </c>
       <c r="L23">
-        <v>1.003228258725156</v>
+        <v>1.026147084953182</v>
       </c>
       <c r="M23">
-        <v>0.955937200420053</v>
+        <v>1.020783089901524</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9834609416018369</v>
+        <v>1.022781548610935</v>
       </c>
       <c r="D24">
-        <v>1.004729934328763</v>
+        <v>1.02766739065642</v>
       </c>
       <c r="E24">
-        <v>0.9932275681675269</v>
+        <v>1.023549956000057</v>
       </c>
       <c r="F24">
-        <v>0.9511806811894422</v>
+        <v>1.019312924154017</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035277449130718</v>
+        <v>1.031725225320211</v>
       </c>
       <c r="J24">
-        <v>1.011610857130369</v>
+        <v>1.029061341560401</v>
       </c>
       <c r="K24">
-        <v>1.018674493069447</v>
+        <v>1.031066790003413</v>
       </c>
       <c r="L24">
-        <v>1.007374668366213</v>
+        <v>1.026964046759381</v>
       </c>
       <c r="M24">
-        <v>0.9661230197095301</v>
+        <v>1.022742269854414</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9912851973928135</v>
+        <v>1.024290257077636</v>
       </c>
       <c r="D25">
-        <v>1.010168455483404</v>
+        <v>1.028754611257462</v>
       </c>
       <c r="E25">
-        <v>0.999371193843584</v>
+        <v>1.024824108352122</v>
       </c>
       <c r="F25">
-        <v>0.9641410449400774</v>
+        <v>1.021917125289941</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037436879139267</v>
+        <v>1.032047735924609</v>
       </c>
       <c r="J25">
-        <v>1.016109451400007</v>
+        <v>1.029953257143897</v>
       </c>
       <c r="K25">
-        <v>1.022610943729409</v>
+        <v>1.031829448066555</v>
       </c>
       <c r="L25">
-        <v>1.01197927906663</v>
+        <v>1.027911536033721</v>
       </c>
       <c r="M25">
-        <v>0.9773227590750287</v>
+        <v>1.025013933357986</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_193/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_193/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.025494267911823</v>
+        <v>0.997275147851874</v>
       </c>
       <c r="D2">
-        <v>1.029622293557509</v>
+        <v>1.014345283997106</v>
       </c>
       <c r="E2">
-        <v>1.025842403853385</v>
+        <v>1.004098219328051</v>
       </c>
       <c r="F2">
-        <v>1.023994663069089</v>
+        <v>0.9739850470348109</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032300846081392</v>
+        <v>1.039056584994684</v>
       </c>
       <c r="J2">
-        <v>1.030662975878256</v>
+        <v>1.019537665353564</v>
       </c>
       <c r="K2">
-        <v>1.032435670204791</v>
+        <v>1.025608319371954</v>
       </c>
       <c r="L2">
-        <v>1.028666791903852</v>
+        <v>1.015500753195745</v>
       </c>
       <c r="M2">
-        <v>1.026824466054024</v>
+        <v>0.9858191165538412</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.026368869764339</v>
+        <v>1.00149135755749</v>
       </c>
       <c r="D3">
-        <v>1.03025259309959</v>
+        <v>1.017291939007813</v>
       </c>
       <c r="E3">
-        <v>1.026582943201328</v>
+        <v>1.007438367325497</v>
       </c>
       <c r="F3">
-        <v>1.025503485680592</v>
+        <v>0.9808788777080661</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.032482231056694</v>
+        <v>1.040176784168603</v>
       </c>
       <c r="J3">
-        <v>1.031177321845912</v>
+        <v>1.02194144906243</v>
       </c>
       <c r="K3">
-        <v>1.032874632585069</v>
+        <v>1.027708245615332</v>
       </c>
       <c r="L3">
-        <v>1.029214901078311</v>
+        <v>1.017976949391443</v>
       </c>
       <c r="M3">
-        <v>1.028138375758012</v>
+        <v>0.9917624078437524</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.026934971342464</v>
+        <v>1.004161669487295</v>
       </c>
       <c r="D4">
-        <v>1.030660565935474</v>
+        <v>1.019160950467716</v>
       </c>
       <c r="E4">
-        <v>1.027062656855838</v>
+        <v>1.009559541958041</v>
       </c>
       <c r="F4">
-        <v>1.026479985932026</v>
+        <v>0.9852316416425237</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03259848946209</v>
+        <v>1.040876880322517</v>
       </c>
       <c r="J4">
-        <v>1.031509686634143</v>
+        <v>1.023459515122065</v>
       </c>
       <c r="K4">
-        <v>1.033158108933363</v>
+        <v>1.029033491743867</v>
       </c>
       <c r="L4">
-        <v>1.029569435292668</v>
+        <v>1.019543944799246</v>
       </c>
       <c r="M4">
-        <v>1.028988266592921</v>
+        <v>0.9955116374617252</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.027173002000022</v>
+        <v>1.005270929498886</v>
       </c>
       <c r="D5">
-        <v>1.030832107136805</v>
+        <v>1.019937964107391</v>
       </c>
       <c r="E5">
-        <v>1.027264455693699</v>
+        <v>1.010442022636941</v>
       </c>
       <c r="F5">
-        <v>1.026890556546702</v>
+        <v>0.9870369756624853</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.032647098525973</v>
+        <v>1.041165427216921</v>
       </c>
       <c r="J5">
-        <v>1.031649304348574</v>
+        <v>1.024089070477745</v>
       </c>
       <c r="K5">
-        <v>1.033277147422895</v>
+        <v>1.029582845600138</v>
       </c>
       <c r="L5">
-        <v>1.02971845003227</v>
+        <v>1.020194553024938</v>
       </c>
       <c r="M5">
-        <v>1.029345493173619</v>
+        <v>0.9970658130412826</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.027212970816792</v>
+        <v>1.005456411276228</v>
       </c>
       <c r="D6">
-        <v>1.030860911356725</v>
+        <v>1.020067925245818</v>
       </c>
       <c r="E6">
-        <v>1.027298346040234</v>
+        <v>1.010589661613218</v>
       </c>
       <c r="F6">
-        <v>1.026959496206854</v>
+        <v>0.987338694329831</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.032655244596936</v>
+        <v>1.041213541171701</v>
       </c>
       <c r="J6">
-        <v>1.03167274040739</v>
+        <v>1.02419427736035</v>
       </c>
       <c r="K6">
-        <v>1.033297126579846</v>
+        <v>1.02967463536587</v>
       </c>
       <c r="L6">
-        <v>1.029743468402982</v>
+        <v>1.020303322728687</v>
       </c>
       <c r="M6">
-        <v>1.02940546922977</v>
+        <v>0.9973255063187028</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.026938151757118</v>
+        <v>1.004176543230335</v>
       </c>
       <c r="D7">
-        <v>1.030662857963007</v>
+        <v>1.019171366835736</v>
       </c>
       <c r="E7">
-        <v>1.027065352803054</v>
+        <v>1.009571369655254</v>
       </c>
       <c r="F7">
-        <v>1.026485471795389</v>
+        <v>0.9852558595004733</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03259914002421</v>
+        <v>1.040880758392468</v>
       </c>
       <c r="J7">
-        <v>1.031511552639446</v>
+        <v>1.02346796083449</v>
       </c>
       <c r="K7">
-        <v>1.033159700062453</v>
+        <v>1.029040862483042</v>
       </c>
       <c r="L7">
-        <v>1.029571426559156</v>
+        <v>1.019552669940349</v>
       </c>
       <c r="M7">
-        <v>1.028993040132974</v>
+        <v>0.9955324894841939</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.025789807018747</v>
+        <v>0.9987123332256674</v>
       </c>
       <c r="D8">
-        <v>1.029835279393523</v>
+        <v>1.015349106000462</v>
       </c>
       <c r="E8">
-        <v>1.026092561238316</v>
+        <v>1.005235559876261</v>
       </c>
       <c r="F8">
-        <v>1.024504539659672</v>
+        <v>0.9763380176887201</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032362375606269</v>
+        <v>1.039440379649339</v>
       </c>
       <c r="J8">
-        <v>1.030836894762308</v>
+        <v>1.020357954009257</v>
       </c>
       <c r="K8">
-        <v>1.032584135590783</v>
+        <v>1.026325101579694</v>
       </c>
       <c r="L8">
-        <v>1.028852054364982</v>
+        <v>1.016345076157276</v>
       </c>
       <c r="M8">
-        <v>1.027268571499021</v>
+        <v>0.9878483404763869</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.023767644504359</v>
+        <v>0.9886159728424971</v>
       </c>
       <c r="D9">
-        <v>1.028377993833413</v>
+        <v>1.008310868883954</v>
       </c>
       <c r="E9">
-        <v>1.024382516626543</v>
+        <v>0.9972714478279877</v>
       </c>
       <c r="F9">
-        <v>1.02101516219413</v>
+        <v>0.9597334473351659</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031936678954321</v>
+        <v>1.036705415553952</v>
       </c>
       <c r="J9">
-        <v>1.029644619602196</v>
+        <v>1.014577235786702</v>
       </c>
       <c r="K9">
-        <v>1.031565637707621</v>
+        <v>1.021270531906149</v>
       </c>
       <c r="L9">
-        <v>1.027583463769089</v>
+        <v>1.010408949553795</v>
       </c>
       <c r="M9">
-        <v>1.024227410010787</v>
+        <v>0.9735154498761214</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.02242048311582</v>
+        <v>0.9815334989845085</v>
       </c>
       <c r="D10">
-        <v>1.02740720677411</v>
+        <v>1.00339330916505</v>
       </c>
       <c r="E10">
-        <v>1.023245321255946</v>
+        <v>0.9917193376203547</v>
       </c>
       <c r="F10">
-        <v>1.01868950889748</v>
+        <v>0.9479682011119553</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031647190476262</v>
+        <v>1.034738705732725</v>
       </c>
       <c r="J10">
-        <v>1.02884747505341</v>
+        <v>1.010499438100272</v>
       </c>
       <c r="K10">
-        <v>1.030883789958764</v>
+        <v>1.017701565464379</v>
       </c>
       <c r="L10">
-        <v>1.026737118447285</v>
+        <v>1.006239729034636</v>
       </c>
       <c r="M10">
-        <v>1.022198117753419</v>
+        <v>0.9633450573546957</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.02183737702411</v>
+        <v>0.9783741640447172</v>
       </c>
       <c r="D11">
-        <v>1.026987031218647</v>
+        <v>1.001205120075305</v>
       </c>
       <c r="E11">
-        <v>1.022753585875489</v>
+        <v>0.9892514857263676</v>
       </c>
       <c r="F11">
-        <v>1.017682558812417</v>
+        <v>0.9426840771734293</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031520492088799</v>
+        <v>1.033850335489826</v>
       </c>
       <c r="J11">
-        <v>1.02850176205755</v>
+        <v>1.008675122519509</v>
       </c>
       <c r="K11">
-        <v>1.030587872124912</v>
+        <v>1.016104345326058</v>
       </c>
       <c r="L11">
-        <v>1.026370500899461</v>
+        <v>1.004378990419788</v>
       </c>
       <c r="M11">
-        <v>1.021318923492812</v>
+        <v>0.9587743617704011</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.021620819386394</v>
+        <v>0.9771858796046947</v>
       </c>
       <c r="D12">
-        <v>1.02683098746269</v>
+        <v>1.000382983644715</v>
       </c>
       <c r="E12">
-        <v>1.02257103608007</v>
+        <v>0.9883246602558163</v>
       </c>
       <c r="F12">
-        <v>1.017308538603711</v>
+        <v>0.9406904480846752</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031473228355481</v>
+        <v>1.033514571366874</v>
       </c>
       <c r="J12">
-        <v>1.028373267330379</v>
+        <v>1.007988171690472</v>
       </c>
       <c r="K12">
-        <v>1.03047785430962</v>
+        <v>1.015502849968836</v>
       </c>
       <c r="L12">
-        <v>1.026234301544342</v>
+        <v>1.003679012597573</v>
       </c>
       <c r="M12">
-        <v>1.020992272568825</v>
+        <v>0.9570495293558763</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.021667270194368</v>
+        <v>0.9774414534716515</v>
       </c>
       <c r="D13">
-        <v>1.026864458090243</v>
+        <v>1.00055976617336</v>
       </c>
       <c r="E13">
-        <v>1.022610188974348</v>
+        <v>0.9885239368404767</v>
       </c>
       <c r="F13">
-        <v>1.01738876702376</v>
+        <v>0.9411195261222166</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03148337573842</v>
+        <v>1.033586860064757</v>
       </c>
       <c r="J13">
-        <v>1.028400833571282</v>
+        <v>1.008135955447398</v>
       </c>
       <c r="K13">
-        <v>1.030501458057609</v>
+        <v>1.015632251904087</v>
       </c>
       <c r="L13">
-        <v>1.026263517724264</v>
+        <v>1.00382956749899</v>
       </c>
       <c r="M13">
-        <v>1.02106234394648</v>
+        <v>0.9574207714143731</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.021819475608254</v>
+        <v>0.9782762465446959</v>
       </c>
       <c r="D14">
-        <v>1.026974132013807</v>
+        <v>1.001137355735257</v>
       </c>
       <c r="E14">
-        <v>1.022738494154446</v>
+        <v>0.9891750847272726</v>
       </c>
       <c r="F14">
-        <v>1.017651642094744</v>
+        <v>0.9425199275376493</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031516589379753</v>
+        <v>1.033822700694446</v>
       </c>
       <c r="J14">
-        <v>1.028491142305174</v>
+        <v>1.008618532191915</v>
       </c>
       <c r="K14">
-        <v>1.03057878007111</v>
+        <v>1.016054795769202</v>
       </c>
       <c r="L14">
-        <v>1.026359243049819</v>
+        <v>1.004321312866475</v>
       </c>
       <c r="M14">
-        <v>1.021291924062699</v>
+        <v>0.9586323512182577</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.021913258892491</v>
+        <v>0.9787886064482948</v>
       </c>
       <c r="D15">
-        <v>1.027041709494151</v>
+        <v>1.00149197354691</v>
       </c>
       <c r="E15">
-        <v>1.022817560832392</v>
+        <v>0.9895749146250452</v>
       </c>
       <c r="F15">
-        <v>1.017813608729249</v>
+        <v>0.9433785952032416</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031537026598346</v>
+        <v>1.03396723531928</v>
       </c>
       <c r="J15">
-        <v>1.028546773700129</v>
+        <v>1.008914612637813</v>
       </c>
       <c r="K15">
-        <v>1.03062640737613</v>
+        <v>1.016314036707844</v>
       </c>
       <c r="L15">
-        <v>1.026418219775857</v>
+        <v>1.004623109800558</v>
       </c>
       <c r="M15">
-        <v>1.021433365348028</v>
+        <v>0.9593751945213451</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.022459186686942</v>
+        <v>0.9817411515595563</v>
       </c>
       <c r="D16">
-        <v>1.027435096342843</v>
+        <v>1.003537250096892</v>
       </c>
       <c r="E16">
-        <v>1.023277970460826</v>
+        <v>0.9918817294811986</v>
       </c>
       <c r="F16">
-        <v>1.018756337964193</v>
+        <v>0.9483146977507325</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031655570648439</v>
+        <v>1.034796867591332</v>
       </c>
       <c r="J16">
-        <v>1.028870407441053</v>
+        <v>1.010619234372314</v>
       </c>
       <c r="K16">
-        <v>1.030903414899692</v>
+        <v>1.017806439851245</v>
       </c>
       <c r="L16">
-        <v>1.026761446639821</v>
+        <v>1.00636201145626</v>
       </c>
       <c r="M16">
-        <v>1.022256456135106</v>
+        <v>0.9636447176764302</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.022801692882923</v>
+        <v>0.9835678364020393</v>
       </c>
       <c r="D17">
-        <v>1.027681906763554</v>
+        <v>1.00480409921756</v>
       </c>
       <c r="E17">
-        <v>1.023566955268178</v>
+        <v>0.9933112729889942</v>
       </c>
       <c r="F17">
-        <v>1.019347703092766</v>
+        <v>0.9513586022159037</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031729569455787</v>
+        <v>1.035307253223846</v>
       </c>
       <c r="J17">
-        <v>1.029073268812648</v>
+        <v>1.011672460177183</v>
       </c>
       <c r="K17">
-        <v>1.031076994429245</v>
+        <v>1.018728416256326</v>
       </c>
       <c r="L17">
-        <v>1.026976705415613</v>
+        <v>1.007437605109032</v>
       </c>
       <c r="M17">
-        <v>1.022772623053222</v>
+        <v>0.9662768560787479</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.02300149251266</v>
+        <v>0.9846244401261629</v>
       </c>
       <c r="D18">
-        <v>1.027825884575072</v>
+        <v>1.005537388606473</v>
       </c>
       <c r="E18">
-        <v>1.023735580553873</v>
+        <v>0.9941389919564507</v>
       </c>
       <c r="F18">
-        <v>1.019692643766911</v>
+        <v>0.9531159304083733</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031772601635202</v>
+        <v>1.035601423273494</v>
       </c>
       <c r="J18">
-        <v>1.029191541901546</v>
+        <v>1.012281171817612</v>
       </c>
       <c r="K18">
-        <v>1.031178175446175</v>
+        <v>1.019261219196626</v>
       </c>
       <c r="L18">
-        <v>1.027102248253101</v>
+        <v>1.00805966680668</v>
       </c>
       <c r="M18">
-        <v>1.023073646789193</v>
+        <v>0.967796185633422</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.023069622670282</v>
+        <v>0.9849832349523855</v>
       </c>
       <c r="D19">
-        <v>1.027874980224735</v>
+        <v>1.005786478903191</v>
       </c>
       <c r="E19">
-        <v>1.023793088476459</v>
+        <v>0.9944202031813266</v>
       </c>
       <c r="F19">
-        <v>1.019810261032827</v>
+        <v>0.9537121266957708</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031787252427436</v>
+        <v>1.035701136534366</v>
       </c>
       <c r="J19">
-        <v>1.029231861053739</v>
+        <v>1.01248778886366</v>
       </c>
       <c r="K19">
-        <v>1.031212664523429</v>
+        <v>1.019442060597087</v>
       </c>
       <c r="L19">
-        <v>1.02714505273471</v>
+        <v>1.008270886553711</v>
       </c>
       <c r="M19">
-        <v>1.023176280145216</v>
+        <v>0.9683115894637617</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.022764942977025</v>
+        <v>0.9833727739062368</v>
       </c>
       <c r="D20">
-        <v>1.027655424528025</v>
+        <v>1.00466876540412</v>
       </c>
       <c r="E20">
-        <v>1.023535943169337</v>
+        <v>0.993158532457581</v>
       </c>
       <c r="F20">
-        <v>1.019284254481995</v>
+        <v>0.9510339116459903</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031721643536614</v>
+        <v>1.035252860523181</v>
       </c>
       <c r="J20">
-        <v>1.029051509137721</v>
+        <v>1.011560043594628</v>
       </c>
       <c r="K20">
-        <v>1.03105837770736</v>
+        <v>1.018630013994832</v>
       </c>
       <c r="L20">
-        <v>1.026953611627432</v>
+        <v>1.007322757115755</v>
       </c>
       <c r="M20">
-        <v>1.022717248191797</v>
+        <v>0.9659961163710993</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.021774653968342</v>
+        <v>0.9780308356907222</v>
       </c>
       <c r="D21">
-        <v>1.026941834992789</v>
+        <v>1.000967532252945</v>
       </c>
       <c r="E21">
-        <v>1.022700708637639</v>
+        <v>0.9889836231316996</v>
       </c>
       <c r="F21">
-        <v>1.017574231816845</v>
+        <v>0.9421084167253591</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031506814373332</v>
+        <v>1.033753413370645</v>
       </c>
       <c r="J21">
-        <v>1.028464550882709</v>
+        <v>1.008476686980853</v>
       </c>
       <c r="K21">
-        <v>1.030556013443552</v>
+        <v>1.015930597594766</v>
       </c>
       <c r="L21">
-        <v>1.026331054911206</v>
+        <v>1.004176753630912</v>
       </c>
       <c r="M21">
-        <v>1.021224320656898</v>
+        <v>0.9582763356851268</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.021152216416243</v>
+        <v>0.9745862303215698</v>
       </c>
       <c r="D22">
-        <v>1.026493336240646</v>
+        <v>0.9985860670813194</v>
       </c>
       <c r="E22">
-        <v>1.022176157652847</v>
+        <v>0.9862996122594864</v>
       </c>
       <c r="F22">
-        <v>1.016499104223017</v>
+        <v>0.9363166287316541</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031370572344432</v>
+        <v>1.032777041650012</v>
       </c>
       <c r="J22">
-        <v>1.028095035345997</v>
+        <v>1.006483852357102</v>
       </c>
       <c r="K22">
-        <v>1.030239574340785</v>
+        <v>1.014185586393571</v>
       </c>
       <c r="L22">
-        <v>1.025939505916215</v>
+        <v>1.002147451454664</v>
       </c>
       <c r="M22">
-        <v>1.020285198477666</v>
+        <v>0.9532648131485058</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.021482163611205</v>
+        <v>0.9764207311392266</v>
       </c>
       <c r="D23">
-        <v>1.026731078148558</v>
+        <v>0.9998538587535778</v>
       </c>
       <c r="E23">
-        <v>1.022454175474018</v>
+        <v>0.987728263522622</v>
       </c>
       <c r="F23">
-        <v>1.017069048421856</v>
+        <v>0.9394048858092199</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031442907694298</v>
+        <v>1.033297913489172</v>
       </c>
       <c r="J23">
-        <v>1.028290967150498</v>
+        <v>1.007545614211266</v>
       </c>
       <c r="K23">
-        <v>1.030407379804077</v>
+        <v>1.015115332650606</v>
       </c>
       <c r="L23">
-        <v>1.026147084953182</v>
+        <v>1.003228258725156</v>
       </c>
       <c r="M23">
-        <v>1.020783089901524</v>
+        <v>0.9559372004200521</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.022781548610935</v>
+        <v>0.9834609416018363</v>
       </c>
       <c r="D24">
-        <v>1.02766739065642</v>
+        <v>1.004729934328763</v>
       </c>
       <c r="E24">
-        <v>1.023549956000057</v>
+        <v>0.9932275681675259</v>
       </c>
       <c r="F24">
-        <v>1.019312924154017</v>
+        <v>0.9511806811894412</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031725225320211</v>
+        <v>1.035277449130717</v>
       </c>
       <c r="J24">
-        <v>1.029061341560401</v>
+        <v>1.011610857130368</v>
       </c>
       <c r="K24">
-        <v>1.031066790003413</v>
+        <v>1.018674493069447</v>
       </c>
       <c r="L24">
-        <v>1.026964046759381</v>
+        <v>1.007374668366213</v>
       </c>
       <c r="M24">
-        <v>1.022742269854414</v>
+        <v>0.9661230197095292</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.024290257077636</v>
+        <v>0.9912851973928133</v>
       </c>
       <c r="D25">
-        <v>1.028754611257462</v>
+        <v>1.010168455483404</v>
       </c>
       <c r="E25">
-        <v>1.024824108352122</v>
+        <v>0.9993711938435837</v>
       </c>
       <c r="F25">
-        <v>1.021917125289941</v>
+        <v>0.9641410449400772</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032047735924609</v>
+        <v>1.037436879139267</v>
       </c>
       <c r="J25">
-        <v>1.029953257143897</v>
+        <v>1.016109451400007</v>
       </c>
       <c r="K25">
-        <v>1.031829448066555</v>
+        <v>1.022610943729409</v>
       </c>
       <c r="L25">
-        <v>1.027911536033721</v>
+        <v>1.01197927906663</v>
       </c>
       <c r="M25">
-        <v>1.025013933357986</v>
+        <v>0.9773227590750287</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
